--- a/uu-assignment/data/Book1.xlsx
+++ b/uu-assignment/data/Book1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12615" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="10665" windowHeight="9720" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,6 @@
     <definedName name="recsys_data_sample_rating_matrix" localSheetId="1">Sheet2!$A$1:$Z$101</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
-  <oleSize ref="H1:S31"/>
 </workbook>
 </file>
 
@@ -729,10 +728,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z104"/>
+  <dimension ref="A1:Z101"/>
   <sheetViews>
-    <sheetView topLeftCell="A68" workbookViewId="0">
-      <selection sqref="A1:Z101"/>
+    <sheetView topLeftCell="A99" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6067,210 +6066,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
-      <c r="B103">
-        <f>COUNT(B2:B101)</f>
-        <v>33</v>
-      </c>
-      <c r="C103">
-        <f t="shared" ref="C103:Z103" si="0">COUNT(C2:C101)</f>
-        <v>88</v>
-      </c>
-      <c r="D103">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-      <c r="E103">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="F103">
-        <f t="shared" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="H103">
-        <f t="shared" si="0"/>
-        <v>51</v>
-      </c>
-      <c r="I103">
-        <f t="shared" si="0"/>
-        <v>99</v>
-      </c>
-      <c r="J103">
-        <f t="shared" si="0"/>
-        <v>96</v>
-      </c>
-      <c r="K103">
-        <f t="shared" si="0"/>
-        <v>85</v>
-      </c>
-      <c r="L103">
-        <f t="shared" si="0"/>
-        <v>46</v>
-      </c>
-      <c r="M103">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="N103">
-        <f t="shared" si="0"/>
-        <v>77</v>
-      </c>
-      <c r="O103">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="P103">
-        <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="Q103">
-        <f t="shared" si="0"/>
-        <v>78</v>
-      </c>
-      <c r="R103">
-        <f t="shared" si="0"/>
-        <v>56</v>
-      </c>
-      <c r="S103">
-        <f t="shared" si="0"/>
-        <v>75</v>
-      </c>
-      <c r="T103">
-        <f t="shared" si="0"/>
-        <v>67</v>
-      </c>
-      <c r="U103">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="V103">
-        <f t="shared" si="0"/>
-        <v>74</v>
-      </c>
-      <c r="W103">
-        <f t="shared" si="0"/>
-        <v>39</v>
-      </c>
-      <c r="X103">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-      <c r="Y103">
-        <f t="shared" si="0"/>
-        <v>45</v>
-      </c>
-      <c r="Z103">
-        <f t="shared" si="0"/>
-        <v>73</v>
-      </c>
-    </row>
-    <row r="104" spans="1:26">
-      <c r="B104">
-        <f>SUM(B2:B101)/COUNT(B2:B101)</f>
-        <v>3.6515151515151514</v>
-      </c>
-      <c r="C104">
-        <f t="shared" ref="C104:Z104" si="1">SUM(C2:C101)/COUNT(C2:C101)</f>
-        <v>4.1079545454545459</v>
-      </c>
-      <c r="D104">
-        <f t="shared" si="1"/>
-        <v>4.6818181818181817</v>
-      </c>
-      <c r="E104">
-        <f t="shared" si="1"/>
-        <v>4.0588235294117645</v>
-      </c>
-      <c r="F104">
-        <f t="shared" si="1"/>
-        <v>3.6615384615384614</v>
-      </c>
-      <c r="G104">
-        <f t="shared" si="1"/>
-        <v>3.6666666666666665</v>
-      </c>
-      <c r="H104">
-        <f t="shared" si="1"/>
-        <v>4.5</v>
-      </c>
-      <c r="I104">
-        <f t="shared" si="1"/>
-        <v>3.5101010101010099</v>
-      </c>
-      <c r="J104">
-        <f t="shared" si="1"/>
-        <v>3.7135416666666665</v>
-      </c>
-      <c r="K104">
-        <f t="shared" si="1"/>
-        <v>4.0411764705882351</v>
-      </c>
-      <c r="L104">
-        <f t="shared" si="1"/>
-        <v>4.0652173913043477</v>
-      </c>
-      <c r="M104">
-        <f t="shared" si="1"/>
-        <v>3.859375</v>
-      </c>
-      <c r="N104">
-        <f t="shared" si="1"/>
-        <v>3.7597402597402598</v>
-      </c>
-      <c r="O104">
-        <f t="shared" si="1"/>
-        <v>4.3974358974358978</v>
-      </c>
-      <c r="P104">
-        <f t="shared" si="1"/>
-        <v>3.6</v>
-      </c>
-      <c r="Q104">
-        <f t="shared" si="1"/>
-        <v>3.6282051282051282</v>
-      </c>
-      <c r="R104">
-        <f t="shared" si="1"/>
-        <v>2.9642857142857144</v>
-      </c>
-      <c r="S104">
-        <f t="shared" si="1"/>
-        <v>3.44</v>
-      </c>
-      <c r="T104">
-        <f t="shared" si="1"/>
-        <v>3.8656716417910446</v>
-      </c>
-      <c r="U104">
-        <f t="shared" si="1"/>
-        <v>2.89</v>
-      </c>
-      <c r="V104">
-        <f t="shared" si="1"/>
-        <v>4.1148648648648649</v>
-      </c>
-      <c r="W104">
-        <f t="shared" si="1"/>
-        <v>3.4230769230769229</v>
-      </c>
-      <c r="X104">
-        <f t="shared" si="1"/>
-        <v>4.2794117647058822</v>
-      </c>
-      <c r="Y104">
-        <f t="shared" si="1"/>
-        <v>3.7</v>
-      </c>
-      <c r="Z104">
-        <f t="shared" si="1"/>
-        <v>3.3698630136986303</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6280,8 +6075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Z26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8998,217 +8793,968 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4:E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:6">
+      <c r="A1">
+        <v>3712</v>
+      </c>
       <c r="B1">
-        <v>1648</v>
+        <v>2824</v>
       </c>
       <c r="C1">
-        <v>5136</v>
+        <v>3867</v>
       </c>
       <c r="D1">
-        <v>918</v>
+        <v>5062</v>
       </c>
       <c r="E1">
+        <v>442</v>
+      </c>
+      <c r="F1">
+        <v>3853</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.46291004988627577</v>
+      </c>
+      <c r="C2">
+        <v>0.40027450425381639</v>
+      </c>
+      <c r="D2">
+        <v>0.24769327229404767</v>
+      </c>
+      <c r="E2">
+        <v>0.2271298649307886</v>
+      </c>
+      <c r="F2">
+        <v>0.19365960183726966</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="B4">
         <v>2824</v>
       </c>
-      <c r="F1">
+      <c r="C4">
         <v>3867</v>
       </c>
-      <c r="G1">
-        <v>860</v>
-      </c>
-      <c r="H1">
-        <v>3712</v>
-      </c>
-      <c r="I1">
-        <v>2968</v>
-      </c>
-      <c r="J1">
-        <v>3525</v>
-      </c>
-      <c r="K1">
-        <v>4323</v>
-      </c>
-      <c r="L1">
-        <v>3617</v>
-      </c>
-      <c r="M1">
-        <v>4360</v>
-      </c>
-      <c r="N1">
-        <v>2756</v>
-      </c>
-      <c r="O1">
-        <v>89</v>
-      </c>
-      <c r="P1">
+      <c r="D4">
+        <v>5062</v>
+      </c>
+      <c r="E4">
         <v>442</v>
       </c>
-      <c r="Q1">
-        <v>3556</v>
-      </c>
-      <c r="R1">
-        <v>5261</v>
-      </c>
-      <c r="S1">
-        <v>2492</v>
-      </c>
-      <c r="T1">
-        <v>5062</v>
-      </c>
-      <c r="U1">
-        <v>2486</v>
-      </c>
-      <c r="V1">
-        <v>4942</v>
-      </c>
-      <c r="W1">
-        <v>2267</v>
-      </c>
-      <c r="X1">
-        <v>4809</v>
-      </c>
-      <c r="Y1">
-        <v>3853</v>
-      </c>
-      <c r="Z1">
-        <v>2288</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
-      <c r="A2">
-        <v>1648</v>
-      </c>
-    </row>
-    <row r="3" spans="1:26">
-      <c r="A3">
-        <v>5136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:26">
-      <c r="A4">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5">
-        <v>2824</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6">
-        <v>3867</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8">
-        <v>3712</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9">
-        <v>2968</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10">
-        <v>3525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11">
-        <v>4323</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12">
-        <v>3617</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13">
-        <v>4360</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14">
-        <v>2756</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17">
-        <v>3556</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18">
-        <v>5261</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19">
-        <v>2492</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20">
-        <v>5062</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21">
-        <v>2486</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22">
-        <v>4942</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23">
-        <v>2267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24">
-        <v>4809</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25">
-        <v>3853</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26">
-        <v>2288</v>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="B5">
+        <v>4.5</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>4.5</v>
+      </c>
+      <c r="D7">
+        <v>4.5</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="D8">
+        <v>4.5</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="B9">
+        <v>4.5</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="C14">
+        <v>4.5</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="D16">
+        <v>4.5</v>
+      </c>
+      <c r="E16">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="C18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19">
+        <v>4</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>4.5</v>
+      </c>
+      <c r="E19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>4.5</v>
+      </c>
+      <c r="E20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="D22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="D23">
+        <v>4.5</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="D24">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="D25">
+        <v>4.5</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>5</v>
+      </c>
+      <c r="D26">
+        <v>4.5</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="C27">
+        <v>4</v>
+      </c>
+      <c r="D27">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28">
+        <v>4.5</v>
+      </c>
+      <c r="C28">
+        <v>3.5</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="D29">
+        <v>4</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="D30">
+        <v>4</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="E31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="E32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="D33">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="C34">
+        <v>2.5</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="E36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38">
+        <v>5</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38">
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="C39">
+        <v>3.5</v>
+      </c>
+      <c r="D39">
+        <v>3.5</v>
+      </c>
+      <c r="E39">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="C40">
+        <v>3.5</v>
+      </c>
+      <c r="D40">
+        <v>4</v>
+      </c>
+      <c r="E40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <v>3.5</v>
+      </c>
+      <c r="E41">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="C42">
+        <v>2.5</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="E43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44">
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>4.5</v>
+      </c>
+      <c r="E44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="C45">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46">
+        <v>3.5</v>
+      </c>
+      <c r="C46">
+        <v>4.5</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="C48">
+        <v>4</v>
+      </c>
+      <c r="D48">
+        <v>3.5</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="D49">
+        <v>3.5</v>
+      </c>
+      <c r="E49">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="C51">
+        <v>3.5</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <v>3.5</v>
+      </c>
+      <c r="E52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="C54">
+        <v>3</v>
+      </c>
+      <c r="D54">
+        <v>3.5</v>
+      </c>
+      <c r="E54">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55">
+        <v>5</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+      <c r="D55">
+        <v>4.5</v>
+      </c>
+      <c r="E55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56">
+        <v>5</v>
+      </c>
+      <c r="C56">
+        <v>2.5</v>
+      </c>
+      <c r="D56">
+        <v>3</v>
+      </c>
+      <c r="E56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57">
+        <v>3</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>3.5</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="D58">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59">
+        <v>3</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="E60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="D61">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62">
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <v>4</v>
+      </c>
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="B63">
+        <v>3</v>
+      </c>
+      <c r="C63">
+        <v>4.5</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5">
+      <c r="B64">
+        <v>3</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+      <c r="D64">
+        <v>4.5</v>
+      </c>
+      <c r="E64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5">
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="E65">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5">
+      <c r="B66">
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5">
+      <c r="C68">
+        <v>2.5</v>
+      </c>
+      <c r="D68">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5">
+      <c r="B69">
+        <v>4</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5">
+      <c r="B70">
+        <v>3</v>
+      </c>
+      <c r="C70">
+        <v>5</v>
+      </c>
+      <c r="D70">
+        <v>3.5</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5">
+      <c r="B71">
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <v>3.5</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5">
+      <c r="B72">
+        <v>2.5</v>
+      </c>
+      <c r="C72">
+        <v>3</v>
+      </c>
+      <c r="D72">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5">
+      <c r="C73">
+        <v>3.5</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5">
+      <c r="C74">
+        <v>3.5</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5">
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5">
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5">
+      <c r="D77">
+        <v>3.5</v>
+      </c>
+      <c r="E77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5">
+      <c r="B78">
+        <v>3.5</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5">
+      <c r="C79">
+        <v>5</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5">
+      <c r="C80">
+        <v>3.5</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5">
+      <c r="C81">
+        <v>2</v>
+      </c>
+      <c r="D81">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5">
+      <c r="B82">
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <v>4.5</v>
+      </c>
+      <c r="D82">
+        <v>4.5</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5">
+      <c r="B83">
+        <v>4.5</v>
+      </c>
+      <c r="C83">
+        <v>4</v>
+      </c>
+      <c r="D83">
+        <v>4.5</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5">
+      <c r="B84">
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <v>3.5</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="2:5">
+      <c r="E85">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5">
+      <c r="E86">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5">
+      <c r="E87">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5">
+      <c r="C88">
+        <v>3.5</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5">
+      <c r="C89">
+        <v>4</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5">
+      <c r="C90">
+        <v>2.5</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5">
+      <c r="C91">
+        <v>3</v>
+      </c>
+      <c r="D91">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5">
+      <c r="D93">
+        <v>3.5</v>
+      </c>
+      <c r="E93">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="E94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="2:5">
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="2:5">
+      <c r="B96">
+        <v>3.5</v>
+      </c>
+      <c r="C96">
+        <v>4</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="3:5">
+      <c r="E99">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="3:5">
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="101" spans="3:5">
+      <c r="C101">
+        <v>4</v>
+      </c>
+      <c r="D101">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="3:5">
+      <c r="C102">
+        <v>4</v>
+      </c>
+      <c r="D102">
+        <v>4</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="3:5">
+      <c r="C103">
+        <v>3.5</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104" spans="3:5">
+      <c r="C104">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A6:B30">
+    <sortCondition descending="1" ref="B6:B30"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>